--- a/1.xlsx
+++ b/1.xlsx
@@ -1,18 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oraLiao/Projects/promotion_spec/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="760" yWindow="460" windowWidth="24840" windowHeight="15540" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="最终确定名单" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="工作表1" sheetId="2" r:id="rId4"/>
+    <sheet name="最终确定名单" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="223">
   <si>
     <t>商家</t>
   </si>
@@ -656,8 +669,7 @@
     <t>http://res.dxycdn.com/trademd/upload/pic/2016/08/28/B14723637440286x4s9iq3tc_medium.jpg</t>
   </si>
   <si>
-    <t>耿樊 
-</t>
+    <t>耿樊</t>
   </si>
   <si>
     <t>第一年合作，效果异议，年底续费，借此次客情促进续费</t>
@@ -676,63 +688,98 @@
   </si>
   <si>
     <t>效果不好，之前的活动都没参加</t>
+  </si>
+  <si>
+    <t>trace</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>alalalalla</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF222222"/>
-      <name val="Simsun"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -740,7 +787,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -767,105 +814,357 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="87.71"/>
-    <col customWidth="1" min="5" max="5" width="48.86"/>
-    <col customWidth="1" min="6" max="6" width="33.0"/>
+    <col min="4" max="4" width="87.6640625" customWidth="1"/>
+    <col min="5" max="5" width="48.83203125" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,8 +1189,11 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="I1" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -914,8 +1216,11 @@
       <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="I2" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
@@ -929,10 +1234,10 @@
         <v>25</v>
       </c>
       <c r="E3" s="6">
-        <v>160000.0</v>
+        <v>160000</v>
       </c>
       <c r="F3" s="6">
-        <v>70000.0</v>
+        <v>70000</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>26</v>
@@ -941,7 +1246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -965,7 +1270,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
@@ -979,10 +1284,10 @@
         <v>53</v>
       </c>
       <c r="E5" s="6">
-        <v>190000.0</v>
+        <v>190000</v>
       </c>
       <c r="F5" s="6">
-        <v>150000.0</v>
+        <v>150000</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>56</v>
@@ -991,7 +1296,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
         <v>58</v>
       </c>
@@ -1005,10 +1310,10 @@
         <v>71</v>
       </c>
       <c r="E6" s="17">
-        <v>25000.0</v>
+        <v>25000</v>
       </c>
       <c r="F6" s="17">
-        <v>18000.0</v>
+        <v>18000</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>72</v>
@@ -1017,7 +1322,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
         <v>33</v>
       </c>
@@ -1043,7 +1348,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>76</v>
       </c>
@@ -1067,7 +1372,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" ht="15.0" customHeight="1">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>82</v>
       </c>
@@ -1091,7 +1396,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>92</v>
       </c>
@@ -1105,7 +1410,7 @@
         <v>97</v>
       </c>
       <c r="E10" s="6">
-        <v>6800.0</v>
+        <v>6800</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>98</v>
@@ -1117,7 +1422,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
         <v>99</v>
       </c>
@@ -1131,10 +1436,10 @@
         <v>103</v>
       </c>
       <c r="E11" s="17">
-        <v>60000.0</v>
+        <v>60000</v>
       </c>
       <c r="F11" s="17">
-        <v>48000.0</v>
+        <v>48000</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>108</v>
@@ -1143,7 +1448,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
         <v>110</v>
       </c>
@@ -1157,7 +1462,7 @@
         <v>114</v>
       </c>
       <c r="E12" s="17">
-        <v>28800.0</v>
+        <v>28800</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>115</v>
@@ -1169,7 +1474,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" ht="17.25" customHeight="1">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>117</v>
       </c>
@@ -1183,10 +1488,10 @@
         <v>120</v>
       </c>
       <c r="E13" s="6">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="F13" s="6">
-        <v>25000.0</v>
+        <v>25000</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>14</v>
@@ -1195,7 +1500,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>60</v>
       </c>
@@ -1221,7 +1526,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>134</v>
       </c>
@@ -1245,7 +1550,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>146</v>
       </c>
@@ -1271,7 +1576,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
         <v>157</v>
       </c>
@@ -1285,10 +1590,10 @@
         <v>162</v>
       </c>
       <c r="E17" s="17">
-        <v>15840.0</v>
+        <v>15840</v>
       </c>
       <c r="F17" s="17">
-        <v>12088.0</v>
+        <v>12088</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>30</v>
@@ -1297,7 +1602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>165</v>
       </c>
@@ -1321,7 +1626,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
         <v>105</v>
       </c>
@@ -1343,7 +1648,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>181</v>
       </c>
@@ -1369,7 +1674,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="22" t="s">
         <v>189</v>
       </c>
@@ -1381,7 +1686,7 @@
       </c>
       <c r="D21" s="22"/>
       <c r="E21">
-        <v>11400.0</v>
+        <v>11400</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>193</v>
@@ -1392,63 +1697,65 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="D2"/>
-    <hyperlink r:id="rId3" ref="C3"/>
-    <hyperlink r:id="rId4" ref="D3"/>
-    <hyperlink r:id="rId5" ref="C4"/>
-    <hyperlink r:id="rId6" ref="D4"/>
-    <hyperlink r:id="rId7" ref="C5"/>
-    <hyperlink r:id="rId8" ref="D5"/>
-    <hyperlink r:id="rId9" ref="C6"/>
-    <hyperlink r:id="rId10" ref="D6"/>
-    <hyperlink r:id="rId11" ref="C7"/>
-    <hyperlink r:id="rId12" ref="D7"/>
-    <hyperlink r:id="rId13" ref="C8"/>
-    <hyperlink r:id="rId14" ref="C9"/>
-    <hyperlink r:id="rId15" ref="D9"/>
-    <hyperlink r:id="rId16" ref="C10"/>
-    <hyperlink r:id="rId17" ref="D10"/>
-    <hyperlink r:id="rId18" ref="C11"/>
-    <hyperlink r:id="rId19" ref="D11"/>
-    <hyperlink r:id="rId20" ref="C12"/>
-    <hyperlink r:id="rId21" ref="D12"/>
-    <hyperlink r:id="rId22" ref="C13"/>
-    <hyperlink r:id="rId23" ref="D13"/>
-    <hyperlink r:id="rId24" ref="C14"/>
-    <hyperlink r:id="rId25" ref="D14"/>
-    <hyperlink r:id="rId26" ref="C15"/>
-    <hyperlink r:id="rId27" ref="D15"/>
-    <hyperlink r:id="rId28" ref="C16"/>
-    <hyperlink r:id="rId29" ref="D16"/>
-    <hyperlink r:id="rId30" ref="C17"/>
-    <hyperlink r:id="rId31" ref="D17"/>
-    <hyperlink r:id="rId32" ref="C18"/>
-    <hyperlink r:id="rId33" ref="D18"/>
-    <hyperlink r:id="rId34" ref="C19"/>
-    <hyperlink r:id="rId35" ref="C20"/>
-    <hyperlink r:id="rId36" ref="D20"/>
-    <hyperlink r:id="rId37" ref="C21"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId12"/>
+    <hyperlink ref="C8" r:id="rId13"/>
+    <hyperlink ref="C9" r:id="rId14"/>
+    <hyperlink ref="D9" r:id="rId15"/>
+    <hyperlink ref="C10" r:id="rId16"/>
+    <hyperlink ref="D10" r:id="rId17"/>
+    <hyperlink ref="C11" r:id="rId18"/>
+    <hyperlink ref="D11" r:id="rId19"/>
+    <hyperlink ref="C12" r:id="rId20"/>
+    <hyperlink ref="D12" r:id="rId21"/>
+    <hyperlink ref="C13" r:id="rId22"/>
+    <hyperlink ref="D13" r:id="rId23"/>
+    <hyperlink ref="C14" r:id="rId24"/>
+    <hyperlink ref="D14" r:id="rId25"/>
+    <hyperlink ref="C15" r:id="rId26"/>
+    <hyperlink ref="D15" r:id="rId27"/>
+    <hyperlink ref="C16" r:id="rId28"/>
+    <hyperlink ref="D16" r:id="rId29"/>
+    <hyperlink ref="C17" r:id="rId30"/>
+    <hyperlink ref="D17" r:id="rId31"/>
+    <hyperlink ref="C18" r:id="rId32"/>
+    <hyperlink ref="D18" r:id="rId33"/>
+    <hyperlink ref="C19" r:id="rId34"/>
+    <hyperlink ref="C20" r:id="rId35"/>
+    <hyperlink ref="D20" r:id="rId36"/>
+    <hyperlink ref="C21" r:id="rId37"/>
   </hyperlinks>
-  <drawing r:id="rId38"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="39.57"/>
-    <col customWidth="1" min="3" max="3" width="48.0"/>
-    <col customWidth="1" min="5" max="5" width="20.71"/>
-    <col customWidth="1" min="6" max="6" width="31.29"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +1784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1521,7 +1828,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
@@ -1563,7 +1870,7 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -1607,7 +1914,7 @@
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1651,7 +1958,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>49</v>
       </c>
@@ -1665,10 +1972,10 @@
         <v>52</v>
       </c>
       <c r="E6" s="10">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="F6" s="10">
-        <v>8000.0</v>
+        <v>8000</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>14</v>
@@ -1697,7 +2004,7 @@
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1711,10 +2018,10 @@
         <v>25</v>
       </c>
       <c r="E7" s="8">
-        <v>160000.0</v>
+        <v>160000</v>
       </c>
       <c r="F7" s="5">
-        <v>70000.0</v>
+        <v>70000</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>26</v>
@@ -1743,7 +2050,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -1787,7 +2094,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>69</v>
       </c>
@@ -1825,7 +2132,7 @@
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -1839,10 +2146,10 @@
         <v>78</v>
       </c>
       <c r="E10" s="5">
-        <v>190000.0</v>
+        <v>190000</v>
       </c>
       <c r="F10" s="5">
-        <v>150000.0</v>
+        <v>150000</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>56</v>
@@ -1871,7 +2178,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>87</v>
       </c>
@@ -1883,10 +2190,10 @@
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13">
-        <v>23800.0</v>
+        <v>23800</v>
       </c>
       <c r="F11" s="10">
-        <v>11900.0</v>
+        <v>11900</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>43</v>
@@ -1915,7 +2222,7 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>76</v>
       </c>
@@ -1961,7 +2268,7 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>105</v>
       </c>
@@ -2003,7 +2310,7 @@
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>92</v>
       </c>
@@ -2015,7 +2322,7 @@
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10">
-        <v>6800.0</v>
+        <v>6800</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>121</v>
@@ -2047,7 +2354,7 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>123</v>
       </c>
@@ -2093,7 +2400,7 @@
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>130</v>
       </c>
@@ -2137,7 +2444,7 @@
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>138</v>
       </c>
@@ -2149,10 +2456,10 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="10">
-        <v>165000.0</v>
+        <v>165000</v>
       </c>
       <c r="F17" s="10">
-        <v>148000.0</v>
+        <v>148000</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>142</v>
@@ -2179,7 +2486,7 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>99</v>
       </c>
@@ -2193,10 +2500,10 @@
         <v>103</v>
       </c>
       <c r="E18" s="5">
-        <v>60000.0</v>
+        <v>60000</v>
       </c>
       <c r="F18" s="5">
-        <v>48000.0</v>
+        <v>48000</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>108</v>
@@ -2225,7 +2532,7 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>152</v>
       </c>
@@ -2239,10 +2546,10 @@
         <v>159</v>
       </c>
       <c r="E19" s="10">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="F19" s="10">
-        <v>14000.0</v>
+        <v>14000</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>108</v>
@@ -2271,7 +2578,7 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20" ht="16.5" customHeight="1">
+    <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -2315,7 +2622,7 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>167</v>
       </c>
@@ -2361,7 +2668,7 @@
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>58</v>
       </c>
@@ -2375,10 +2682,10 @@
         <v>71</v>
       </c>
       <c r="E22" s="5">
-        <v>25000.0</v>
+        <v>25000</v>
       </c>
       <c r="F22" s="5">
-        <v>18000.0</v>
+        <v>18000</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>72</v>
@@ -2407,7 +2714,7 @@
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>110</v>
       </c>
@@ -2421,7 +2728,7 @@
         <v>114</v>
       </c>
       <c r="E23" s="8">
-        <v>28800.0</v>
+        <v>28800</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>177</v>
@@ -2453,7 +2760,7 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="22" t="s">
         <v>179</v>
       </c>
@@ -2476,7 +2783,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>181</v>
       </c>
@@ -2505,7 +2812,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>157</v>
       </c>
@@ -2519,10 +2826,10 @@
         <v>162</v>
       </c>
       <c r="E26" s="8">
-        <v>15840.0</v>
+        <v>15840</v>
       </c>
       <c r="F26" s="5">
-        <v>12088.0</v>
+        <v>12088</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>30</v>
@@ -2551,7 +2858,7 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>146</v>
       </c>
@@ -2597,7 +2904,7 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
         <v>199</v>
       </c>
@@ -2611,10 +2918,10 @@
         <v>202</v>
       </c>
       <c r="E28" s="22">
-        <v>68000.0</v>
+        <v>68000</v>
       </c>
       <c r="F28" s="22">
-        <v>60000.0</v>
+        <v>60000</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>108</v>
@@ -2626,7 +2933,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
         <v>204</v>
       </c>
@@ -2655,7 +2962,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
         <v>210</v>
       </c>
@@ -2669,10 +2976,10 @@
         <v>213</v>
       </c>
       <c r="E30">
-        <v>9800.0</v>
+        <v>9800</v>
       </c>
       <c r="F30" s="22">
-        <v>7350.0</v>
+        <v>7350</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>72</v>
@@ -2684,7 +2991,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>117</v>
       </c>
@@ -2698,10 +3005,10 @@
         <v>120</v>
       </c>
       <c r="E31" s="8">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="F31" s="5">
-        <v>25000.0</v>
+        <v>25000</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>14</v>
@@ -2713,7 +3020,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>134</v>
       </c>
@@ -2740,7 +3047,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
         <v>189</v>
       </c>
@@ -2752,7 +3059,7 @@
       </c>
       <c r="D33" s="22"/>
       <c r="E33">
-        <v>11400.0</v>
+        <v>11400</v>
       </c>
       <c r="F33" t="s">
         <v>218</v>
@@ -2765,7 +3072,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>165</v>
       </c>
@@ -2809,68 +3116,69 @@
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
     </row>
-    <row r="37" ht="16.5" customHeight="1"/>
+    <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="D2"/>
-    <hyperlink r:id="rId3" ref="C3"/>
-    <hyperlink r:id="rId4" ref="D3"/>
-    <hyperlink r:id="rId5" ref="C4"/>
-    <hyperlink r:id="rId6" ref="C5"/>
-    <hyperlink r:id="rId7" ref="D5"/>
-    <hyperlink r:id="rId8" ref="C6"/>
-    <hyperlink r:id="rId9" ref="D6"/>
-    <hyperlink r:id="rId10" ref="C7"/>
-    <hyperlink r:id="rId11" ref="D7"/>
-    <hyperlink r:id="rId12" ref="C8"/>
-    <hyperlink r:id="rId13" ref="D8"/>
-    <hyperlink r:id="rId14" ref="C9"/>
-    <hyperlink r:id="rId15" ref="C10"/>
-    <hyperlink r:id="rId16" ref="D10"/>
-    <hyperlink r:id="rId17" ref="C11"/>
-    <hyperlink r:id="rId18" ref="C12"/>
-    <hyperlink r:id="rId19" ref="D12"/>
-    <hyperlink r:id="rId20" ref="C13"/>
-    <hyperlink r:id="rId21" ref="C14"/>
-    <hyperlink r:id="rId22" ref="C15"/>
-    <hyperlink r:id="rId23" ref="D15"/>
-    <hyperlink r:id="rId24" ref="C16"/>
-    <hyperlink r:id="rId25" ref="D16"/>
-    <hyperlink r:id="rId26" ref="C17"/>
-    <hyperlink r:id="rId27" ref="C18"/>
-    <hyperlink r:id="rId28" ref="D18"/>
-    <hyperlink r:id="rId29" ref="C19"/>
-    <hyperlink r:id="rId30" ref="D19"/>
-    <hyperlink r:id="rId31" ref="C20"/>
-    <hyperlink r:id="rId32" ref="D20"/>
-    <hyperlink r:id="rId33" ref="C21"/>
-    <hyperlink r:id="rId34" ref="D21"/>
-    <hyperlink r:id="rId35" ref="C22"/>
-    <hyperlink r:id="rId36" ref="D22"/>
-    <hyperlink r:id="rId37" ref="C23"/>
-    <hyperlink r:id="rId38" ref="D23"/>
-    <hyperlink r:id="rId39" ref="C24"/>
-    <hyperlink r:id="rId40" ref="C25"/>
-    <hyperlink r:id="rId41" ref="D25"/>
-    <hyperlink r:id="rId42" ref="C26"/>
-    <hyperlink r:id="rId43" ref="D26"/>
-    <hyperlink r:id="rId44" ref="C27"/>
-    <hyperlink r:id="rId45" ref="D27"/>
-    <hyperlink r:id="rId46" ref="C28"/>
-    <hyperlink r:id="rId47" ref="D28"/>
-    <hyperlink r:id="rId48" ref="C29"/>
-    <hyperlink r:id="rId49" ref="D29"/>
-    <hyperlink r:id="rId50" ref="C30"/>
-    <hyperlink r:id="rId51" ref="D30"/>
-    <hyperlink r:id="rId52" ref="C31"/>
-    <hyperlink r:id="rId53" ref="D31"/>
-    <hyperlink r:id="rId54" ref="C32"/>
-    <hyperlink r:id="rId55" ref="D32"/>
-    <hyperlink r:id="rId56" ref="C33"/>
-    <hyperlink r:id="rId57" ref="C34"/>
-    <hyperlink r:id="rId58" ref="D34"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="C6" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId9"/>
+    <hyperlink ref="C7" r:id="rId10"/>
+    <hyperlink ref="D7" r:id="rId11"/>
+    <hyperlink ref="C8" r:id="rId12"/>
+    <hyperlink ref="D8" r:id="rId13"/>
+    <hyperlink ref="C9" r:id="rId14"/>
+    <hyperlink ref="C10" r:id="rId15"/>
+    <hyperlink ref="D10" r:id="rId16"/>
+    <hyperlink ref="C11" r:id="rId17"/>
+    <hyperlink ref="C12" r:id="rId18"/>
+    <hyperlink ref="D12" r:id="rId19"/>
+    <hyperlink ref="C13" r:id="rId20"/>
+    <hyperlink ref="C14" r:id="rId21"/>
+    <hyperlink ref="C15" r:id="rId22"/>
+    <hyperlink ref="D15" r:id="rId23"/>
+    <hyperlink ref="C16" r:id="rId24"/>
+    <hyperlink ref="D16" r:id="rId25"/>
+    <hyperlink ref="C17" r:id="rId26"/>
+    <hyperlink ref="C18" r:id="rId27"/>
+    <hyperlink ref="D18" r:id="rId28"/>
+    <hyperlink ref="C19" r:id="rId29"/>
+    <hyperlink ref="D19" r:id="rId30"/>
+    <hyperlink ref="C20" r:id="rId31"/>
+    <hyperlink ref="D20" r:id="rId32"/>
+    <hyperlink ref="C21" r:id="rId33"/>
+    <hyperlink ref="D21" r:id="rId34"/>
+    <hyperlink ref="C22" r:id="rId35"/>
+    <hyperlink ref="D22" r:id="rId36"/>
+    <hyperlink ref="C23" r:id="rId37"/>
+    <hyperlink ref="D23" r:id="rId38"/>
+    <hyperlink ref="C24" r:id="rId39"/>
+    <hyperlink ref="C25" r:id="rId40"/>
+    <hyperlink ref="D25" r:id="rId41"/>
+    <hyperlink ref="C26" r:id="rId42"/>
+    <hyperlink ref="D26" r:id="rId43"/>
+    <hyperlink ref="C27" r:id="rId44"/>
+    <hyperlink ref="D27" r:id="rId45"/>
+    <hyperlink ref="C28" r:id="rId46"/>
+    <hyperlink ref="D28" r:id="rId47"/>
+    <hyperlink ref="C29" r:id="rId48"/>
+    <hyperlink ref="D29" r:id="rId49"/>
+    <hyperlink ref="C30" r:id="rId50"/>
+    <hyperlink ref="D30" r:id="rId51"/>
+    <hyperlink ref="C31" r:id="rId52"/>
+    <hyperlink ref="D31" r:id="rId53"/>
+    <hyperlink ref="C32" r:id="rId54"/>
+    <hyperlink ref="D32" r:id="rId55"/>
+    <hyperlink ref="C33" r:id="rId56"/>
+    <hyperlink ref="C34" r:id="rId57"/>
+    <hyperlink ref="D34" r:id="rId58"/>
   </hyperlinks>
-  <drawing r:id="rId59"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>